--- a/graficos/fuzzyInputPROJETO.xlsx
+++ b/graficos/fuzzyInputPROJETO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caio\Caio\UFSCar\TCC\repositorio\trunk\graficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -62,8 +62,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,11 +657,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-358809712"/>
-        <c:axId val="-358810256"/>
+        <c:axId val="910914768"/>
+        <c:axId val="910915312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-358809712"/>
+        <c:axId val="910914768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -782,13 +782,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-358810256"/>
+        <c:crossAx val="910915312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-358810256"/>
+        <c:axId val="910915312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -909,7 +909,1037 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-358809712"/>
+        <c:crossAx val="910914768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>serie1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>10</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>serie2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>15</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>serie3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>20</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>serie4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>25</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>serie5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>30</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>serie7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>35</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>serie8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>40</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>45</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>45</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>50</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>45</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>55</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>55</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="974186320"/>
+        <c:axId val="974181424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="974186320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="55"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Incremento</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de velocidade para os motores</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3765401982108546"/>
+              <c:y val="0.90820332406063198"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974181424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="974181424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Grau de pertinência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1055643588933014E-2"/>
+              <c:y val="0.23992799538875981"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974186320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -999,6 +2029,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1515,20 +2585,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>678</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>405491</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>77786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>81642</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>486456</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>153987</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1542,6 +3128,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>493715</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1813,336 +3431,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:T20"/>
+  <dimension ref="F1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
     <row r="2" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
     <row r="4" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
     <row r="5" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
     <row r="7" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
     </row>
     <row r="8" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
     </row>
     <row r="9" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
     </row>
     <row r="10" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
     </row>
     <row r="11" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
     </row>
     <row r="12" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
     </row>
     <row r="13" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
     </row>
     <row r="14" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
     <row r="15" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
     </row>
     <row r="16" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
     </row>
     <row r="17" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
     </row>
     <row r="18" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
@@ -2161,6 +3779,329 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
+    <row r="21" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/graficos/fuzzyInputPROJETO.xlsx
+++ b/graficos/fuzzyInputPROJETO.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,7 +128,7 @@
                 <c:v>0</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>3</c:v>
+                <c:v>5</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
@@ -171,10 +172,10 @@
                 <c:v>0</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>3</c:v>
+                <c:v>5</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>6</c:v>
+                <c:v>10</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
@@ -218,13 +219,13 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="3"/>
               <c:pt idx="0">
-                <c:v>3</c:v>
+                <c:v>5</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>6</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>9</c:v>
+                <c:v>15</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
@@ -268,13 +269,13 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="3"/>
               <c:pt idx="0">
-                <c:v>6</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>9</c:v>
+                <c:v>15</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>12</c:v>
+                <c:v>20</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
@@ -316,15 +317,12 @@
           <c:xVal>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
+              <c:ptCount val="2"/>
               <c:pt idx="0">
-                <c:v>9</c:v>
+                <c:v>15</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>15</c:v>
+                <c:v>30</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
@@ -340,310 +338,6 @@
               </c:pt>
               <c:pt idx="2">
                 <c:v>0</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Serie6</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>18</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>0</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>Serie7</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>18</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>21</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>0</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>Serie8</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>18</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>21</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>24</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>0</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>Serie9</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>21</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>24</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>27</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>0</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>Serie10</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>24</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>27</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>30</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>0</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:v>Serie11</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>27</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>30</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
               </c:pt>
             </c:numLit>
           </c:yVal>
@@ -657,11 +351,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="910914768"/>
-        <c:axId val="910915312"/>
+        <c:axId val="-1263432928"/>
+        <c:axId val="-1263436192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="910914768"/>
+        <c:axId val="-1263432928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -702,8 +396,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>Ângulo de inclinação</a:t>
+                  <a:rPr lang="pt-BR" sz="1200"/>
+                  <a:t>Ângulo de inclinação de entrada (graus)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -712,8 +406,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.44932498393884851"/>
-              <c:y val="0.89954531835384721"/>
+              <c:x val="0.24157921303604848"/>
+              <c:y val="0.88222930694027779"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -782,13 +476,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="910915312"/>
+        <c:crossAx val="-1263436192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="3"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="910915312"/>
+        <c:axId val="-1263436192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -829,7 +523,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1200"/>
                   <a:t>Grau de pertinência</a:t>
                 </a:r>
               </a:p>
@@ -839,8 +533,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.1055643588933014E-2"/>
-              <c:y val="0.23992799538875981"/>
+              <c:x val="1.3749534385078602E-2"/>
+              <c:y val="0.19905946277311662"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -909,7 +603,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="910914768"/>
+        <c:crossAx val="-1263432928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -1681,11 +1375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="974186320"/>
-        <c:axId val="974181424"/>
+        <c:axId val="-1263425312"/>
+        <c:axId val="-1263432384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="974186320"/>
+        <c:axId val="-1263425312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="55"/>
@@ -1812,13 +1506,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="974181424"/>
+        <c:crossAx val="-1263432384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="974181424"/>
+        <c:axId val="-1263432384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1939,7 +1633,594 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="974186320"/>
+        <c:crossAx val="-1263425312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Serie1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Serie2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Serie3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Serie4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Serie5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>6</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1108665760"/>
+        <c:axId val="-1108668480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1108665760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200"/>
+                  <a:t>Incremento de velocidade dos motores (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>µs)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.24157921303604848"/>
+              <c:y val="0.88222930694027779"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1108668480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1108668480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200"/>
+                  <a:t>Grau de pertinência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2460868280820074E-2"/>
+              <c:y val="0.19905946277311662"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1108665760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -2069,6 +2350,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3101,20 +3422,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>405491</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>484867</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>77786</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>486456</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>153987</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3160,6 +3997,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>325438</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>420688</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120653</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3433,8 +4302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
